--- a/xlsxcomp/bin/Debug/demo-new.xlsx
+++ b/xlsxcomp/bin/Debug/demo-new.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
   <si>
     <t>tagno</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -98,6 +98,22 @@
   </si>
   <si>
     <t>10-PT-108A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Duplicated</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>duplicated</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>empty key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10-PT-114</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -415,7 +431,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -423,10 +439,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -658,6 +674,34 @@
         <v>13000</v>
       </c>
     </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>115</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
